--- a/3-paramétrage-de-lig/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/3-paramétrage-de-lig/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-01T13:42:01+00:00</t>
+    <t>2025-07-02T12:35:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/3-paramétrage-de-lig/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/3-paramétrage-de-lig/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-02T12:35:57+00:00</t>
+    <t>2025-07-02T12:53:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/3-paramétrage-de-lig/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/3-paramétrage-de-lig/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-02T12:53:04+00:00</t>
+    <t>2025-07-02T13:37:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/3-paramétrage-de-lig/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/3-paramétrage-de-lig/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-02T13:37:45+00:00</t>
+    <t>2025-07-08T07:52:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/3-paramétrage-de-lig/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/3-paramétrage-de-lig/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-08T07:52:01+00:00</t>
+    <t>2025-07-09T08:13:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
